--- a/BOM_v01.xlsx
+++ b/BOM_v01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>REF</t>
   </si>
@@ -115,6 +115,27 @@
   </si>
   <si>
     <t>CD14538BM96</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>QPC02SXGN-RC</t>
+  </si>
+  <si>
+    <t>JP1-JP</t>
+  </si>
+  <si>
+    <t>6V-PSU</t>
+  </si>
+  <si>
+    <t>XP Power</t>
+  </si>
+  <si>
+    <t>VEL05US060-US-JA</t>
+  </si>
+  <si>
+    <t>PCB Post-Manufacturing Accessories</t>
   </si>
 </sst>
 </file>
@@ -598,8 +619,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,11 +945,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1114,7 +1146,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>